--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="3465" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="3975" firstSheet="7" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Sheet1" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:H6"/>
+  <oleSize ref="A1:I7"/>
 </workbook>
 </file>
 
@@ -192,9 +192,6 @@
     <t>City25</t>
   </si>
   <si>
-    <t>ASBBDT</t>
-  </si>
-  <si>
     <t>5678905</t>
   </si>
   <si>
@@ -237,9 +234,6 @@
     <t>AppolloNew14</t>
   </si>
   <si>
-    <t>ASBBC1234</t>
-  </si>
-  <si>
     <t>No Visit</t>
   </si>
   <si>
@@ -258,7 +252,13 @@
     <t>Plan3</t>
   </si>
   <si>
-    <t>Upload15</t>
+    <t>Upload16</t>
+  </si>
+  <si>
+    <t>ASBBC1</t>
+  </si>
+  <si>
+    <t>ASBBD</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -767,12 +767,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -801,7 +802,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>46</v>
@@ -819,7 +820,7 @@
         <v>4567</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -852,10 +853,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -880,7 +881,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -911,18 +912,18 @@
         <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -947,7 +948,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -973,16 +974,16 @@
         <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1004,12 +1005,12 @@
         <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1113,10 +1114,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1144,7 +1145,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -1194,7 +1195,7 @@
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1259,7 +1260,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1274,7 +1275,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
@@ -1290,7 +1291,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView zoomScale="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1324,7 +1325,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
@@ -1342,7 +1343,7 @@
         <v>1213</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1354,7 +1355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+    <sheetView zoomScale="160" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="3975" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="3975" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Sheet1" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:I7"/>
+  <oleSize ref="A1:F7"/>
 </workbook>
 </file>
 
@@ -767,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+    <sheetView zoomScale="160" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="3975" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="14985" windowHeight="2955"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="Sheet1" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:F7"/>
+  <oleSize ref="A1:C5"/>
 </workbook>
 </file>
 
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1025,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1160,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="B1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
